--- a/registro_alerta.xlsx
+++ b/registro_alerta.xlsx
@@ -473,14 +473,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pompeia</t>
+          <t>Butantã</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
